--- a/media/QUESTION_UPLOAD_TEMPLATE.xlsx
+++ b/media/QUESTION_UPLOAD_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MySpace\Study Material\Semester I\537 Tools For Data Science\Project\QuizWise\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0159AC3A-E14B-42AD-92B0-175E3C416D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EADDDE-1DAD-45FA-9E0C-BC943A5265AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77AD3DEC-386E-48AE-93C5-2B6422F97BAB}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>QUESTION</t>
   </si>
   <si>
-    <t>Radio Buttom - Multiple Options With One Answer</t>
-  </si>
-  <si>
     <t>ANSWER</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>START ADDING QUESTIONS BELOW</t>
+  </si>
+  <si>
+    <t>Radio Button - Multiple Options With One Answer</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,48 +480,48 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -556,7 +556,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -567,8 +567,8 @@
     <mergeCell ref="A10:D10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B9 B11:B1048576" xr:uid="{0F9A1A30-4A75-48F6-AB40-EA592BF85747}">
-      <formula1>"Radio Buttom - Multiple Options With One Answer,Checkbox - Multiple Options With One or More Answers,Free Text Answer"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{24129708-3017-4975-8AE5-8A9A636E28FF}">
+      <formula1>"Radio Button - Multiple Options With One Answer,Checkbox - Multiple Options With One or More Answers,Free Text Answer"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
